--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
     <sheet name="项目表(Project)" sheetId="2" r:id="rId2"/>
+    <sheet name="所属单位(LocalUnit)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,53 +74,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入时间</t>
+  </si>
+  <si>
+    <t>ImportTime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZipPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
     <t>ProjectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatalogType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatalogVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入时间</t>
-  </si>
-  <si>
-    <t>ImportTime</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>项目主题</t>
+  </si>
+  <si>
+    <t>ProjectTopic</t>
+  </si>
+  <si>
+    <t>项目方向</t>
+  </si>
+  <si>
+    <t>ProjectDirection</t>
+  </si>
+  <si>
+    <t>保密等级</t>
+  </si>
+  <si>
+    <t>ProjectSecretLevel</t>
+  </si>
+  <si>
+    <t>项目负责人</t>
+  </si>
+  <si>
+    <t>ProjectMasterName</t>
+  </si>
+  <si>
+    <t>项目负责人性  别</t>
+  </si>
+  <si>
+    <t>ProjectMasterSex</t>
+  </si>
+  <si>
+    <t>项目负责人出生年月</t>
+  </si>
+  <si>
+    <t>ProjectMasterBirthday</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>项目负责人职务职称</t>
+  </si>
+  <si>
+    <t>ProjectMasterJob</t>
+  </si>
+  <si>
+    <t>项目负责人座  机</t>
+  </si>
+  <si>
+    <t>ProjectMasterTelephone</t>
+  </si>
+  <si>
+    <t>项目负责人手  机</t>
+  </si>
+  <si>
+    <t>ProjectMasterMobilephone</t>
+  </si>
+  <si>
+    <t>项目组联系人</t>
+  </si>
+  <si>
+    <t>TeamContactName</t>
+  </si>
+  <si>
+    <t>项目组联系人性  别</t>
+  </si>
+  <si>
+    <t>TeamContactSex</t>
+  </si>
+  <si>
+    <t>项目组联系人出生年月</t>
+  </si>
+  <si>
+    <t>TeamContactBirthday</t>
+  </si>
+  <si>
+    <t>项目组联系人职务职称</t>
+  </si>
+  <si>
+    <t>TeamContactJob</t>
+  </si>
+  <si>
+    <t>项目组联系人座  机</t>
+  </si>
+  <si>
+    <t>TeamContactTelephone</t>
+  </si>
+  <si>
+    <t>项目组联系人手  机</t>
+  </si>
+  <si>
+    <t>TeamContactMobilephone</t>
+  </si>
+  <si>
+    <t>项目组联系人通信地址</t>
+  </si>
+  <si>
+    <t>TeamContactAddress</t>
+  </si>
+  <si>
+    <t>责任单位名称</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>责任单位常用名称</t>
+  </si>
+  <si>
+    <t>UnitRealName</t>
+  </si>
+  <si>
+    <t>责任单位通信地址</t>
+  </si>
+  <si>
+    <t>UnitAddress</t>
+  </si>
+  <si>
+    <t>责任单位所属大单位</t>
+  </si>
+  <si>
+    <t>UnitType2</t>
+  </si>
+  <si>
+    <t>责任单位联系人</t>
+  </si>
+  <si>
+    <t>UnitContact</t>
+  </si>
+  <si>
+    <t>责任单位联系人职务</t>
+  </si>
+  <si>
+    <t>UnitContactJob</t>
+  </si>
+  <si>
+    <t>责任单位联系人电话</t>
+  </si>
+  <si>
+    <t>UnitContactPhone</t>
+  </si>
+  <si>
+    <t>总时间</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>总经费</t>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>申报日期</t>
+  </si>
+  <si>
+    <t>RequestTime</t>
   </si>
   <si>
     <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZipPath</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalUnitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalUnitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,14 +343,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -177,10 +375,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -539,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -547,43 +744,43 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -595,16 +792,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -646,14 +843,357 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
+      <c r="A4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,26 @@
   </si>
   <si>
     <t>nvarchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究内容标题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectNameList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,6 +1157,28 @@
       </c>
       <c r="C30" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
     <sheet name="项目表(Project)" sheetId="2" r:id="rId2"/>
-    <sheet name="所属单位(LocalUnit)" sheetId="3" r:id="rId3"/>
+    <sheet name="课题表(Subject)" sheetId="4" r:id="rId3"/>
+    <sheet name="所属单位(LocalUnit)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,98 @@
   </si>
   <si>
     <t>SubjectNameList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecretLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位通信地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位所属大单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitContactJob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitContactPhone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,10 +1283,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
